--- a/Related_work/LRelatedWork.xlsx
+++ b/Related_work/LRelatedWork.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. Sensors: Sensors
 2. In-vehicle network: Network
 3. In-vehicle network: Gateway</t>
@@ -1019,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,12 +1055,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1370,10 +1370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1452,7 +1452,7 @@
       <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="10">
         <f>H2/I2</f>
         <v>0.454545454545455</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="I3">
         <v>11</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="10">
         <f t="shared" ref="J3:J15" si="0">H3/I3</f>
         <v>0.363636363636364</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="I4">
         <v>11</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <f t="shared" si="0"/>
         <v>0.454545454545455</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="I5">
         <v>11</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <f t="shared" si="0"/>
         <v>0.272727272727273</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="I6">
         <v>11</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="10">
         <f t="shared" si="0"/>
         <v>0.545454545454545</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="I7">
         <v>11</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <f t="shared" si="0"/>
         <v>0.454545454545455</v>
       </c>
@@ -1665,7 +1665,7 @@
       <c r="I8">
         <v>11</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <f t="shared" si="0"/>
         <v>0.636363636363636</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="I9">
         <v>11</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <f t="shared" si="0"/>
         <v>0.363636363636364</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="I10">
         <v>11</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <f t="shared" si="0"/>
         <v>0.454545454545455</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="I11">
         <v>11</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <f t="shared" si="0"/>
         <v>0.545454545454545</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="I12">
         <v>11</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <f t="shared" si="0"/>
         <v>0.636363636363636</v>
       </c>
@@ -1839,7 +1839,7 @@
       <c r="I13">
         <v>11</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <f t="shared" si="0"/>
         <v>0.272727272727273</v>
       </c>
@@ -1872,7 +1872,7 @@
       <c r="I14">
         <v>11</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <f t="shared" si="0"/>
         <v>0.363636363636364</v>
       </c>
@@ -1885,47 +1885,13 @@
       <c r="I15">
         <v>11</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="10">
         <f t="shared" si="0"/>
         <v>0.909090909090909</v>
       </c>
     </row>
-    <row r="16" spans="7:8">
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K19" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K15" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
